--- a/信用卡贷后系统/需求、缺陷汇总.xlsx
+++ b/信用卡贷后系统/需求、缺陷汇总.xlsx
@@ -93,7 +93,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>贷后管理系统权限管理、押品管理和个人信息添加的需求.doc</t>
+    <t xml:space="preserve">贷后管理系统权限管理、押品管理和个人信息添加的需求.doc </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -581,7 +581,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -593,7 +593,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" customHeight="1"/>

--- a/信用卡贷后系统/需求、缺陷汇总.xlsx
+++ b/信用卡贷后系统/需求、缺陷汇总.xlsx
@@ -93,7 +93,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">贷后管理系统权限管理、押品管理和个人信息添加的需求.doc </t>
+    <t>贷后管理系统权限管理、押品管理和个人信息添加的需求.doc</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -581,7 +581,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/信用卡贷后系统/需求、缺陷汇总.xlsx
+++ b/信用卡贷后系统/需求、缺陷汇总.xlsx
@@ -93,7 +93,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>贷后管理系统权限管理、押品管理和个人信息添加的需求.doc</t>
+    <t xml:space="preserve">贷后管理系统权限管理、押品管理和个人信息添加的需求.doc  </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -581,7 +581,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/信用卡贷后系统/需求、缺陷汇总.xlsx
+++ b/信用卡贷后系统/需求、缺陷汇总.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>正在处理</t>
   </si>
@@ -85,15 +85,51 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>客户基本信息、押品新预警规则</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">贷后管理系统权限管理、押品管理和个人信息添加的需求.doc  </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整临时额度、固定额度和卡片状态U变A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>TZ-00001</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>客户基本信息、押品新预警规则</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">贷后管理系统权限管理、押品管理和个人信息添加的需求.doc  </t>
+    <t>TZ-00002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈海明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整临时额度、固定额度和卡片状态U变A.docx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈海明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺陷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>多机批量不能获取文件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>QX2021050701</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -209,7 +245,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -264,6 +300,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -272,6 +314,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -593,7 +638,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" customHeight="1"/>
@@ -613,17 +658,17 @@
   <sheetData>
     <row r="1" spans="1:12" ht="14.25" customHeight="1">
       <c r="B1" s="1"/>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="22"/>
     </row>
     <row r="2" spans="1:12" ht="27.75" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -674,16 +719,16 @@
         <v>15</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" s="9">
         <v>1</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>13</v>
@@ -694,29 +739,65 @@
       <c r="J3" s="12"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="13"/>
+    <row r="4" spans="1:12" ht="28">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="13"/>
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="2">
+        <v>3</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="23">
+        <v>44342</v>
+      </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>

--- a/信用卡贷后系统/需求、缺陷汇总.xlsx
+++ b/信用卡贷后系统/需求、缺陷汇总.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
     <t>正在处理</t>
   </si>
@@ -130,6 +130,22 @@
   </si>
   <si>
     <t>QX2021050701</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>本行抵押贷款客户发放信用卡解押时押品控制需求</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TZ-00003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>待定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李成林、陈海明</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -245,7 +261,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -306,6 +322,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -314,9 +336,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -626,7 +645,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -638,7 +657,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K5" sqref="K5"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" customHeight="1"/>
@@ -658,17 +677,17 @@
   <sheetData>
     <row r="1" spans="1:12" ht="14.25" customHeight="1">
       <c r="B1" s="1"/>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="24"/>
     </row>
     <row r="2" spans="1:12" ht="27.75" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -795,22 +814,40 @@
       <c r="H5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="23">
+      <c r="I5" s="21">
         <v>44342</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="13"/>
+    <row r="6" spans="1:12" ht="28">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="9">
+        <v>3</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>31</v>
+      </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>

--- a/信用卡贷后系统/需求、缺陷汇总.xlsx
+++ b/信用卡贷后系统/需求、缺陷汇总.xlsx
@@ -137,15 +137,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>待定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李成林、陈海明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>TZ-00003</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>待定</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>李成林、陈海明</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -645,7 +645,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -657,7 +657,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" customHeight="1"/>
@@ -825,7 +825,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>26</v>
@@ -840,13 +840,13 @@
         <v>29</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I6" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>

--- a/信用卡贷后系统/需求、缺陷汇总.xlsx
+++ b/信用卡贷后系统/需求、缺陷汇总.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
   <si>
     <t>正在处理</t>
   </si>
@@ -146,6 +146,30 @@
   </si>
   <si>
     <t>TZ-00003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺陷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险化解，协议分期，跟银数交付文件，日期不对</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>批量取文件报错</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产批量报错，证件号码查到多个客户</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冉茂坤</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -261,7 +285,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -327,6 +351,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -657,7 +684,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" customHeight="1"/>
@@ -677,17 +704,17 @@
   <sheetData>
     <row r="1" spans="1:12" ht="14.25" customHeight="1">
       <c r="B1" s="1"/>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="24"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="25"/>
     </row>
     <row r="2" spans="1:12" ht="27.75" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -851,24 +878,38 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:12" ht="14.25" customHeight="1">
+    <row r="7" spans="1:12" ht="28">
       <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="2"/>
+      <c r="B7" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>34</v>
+      </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="G7" s="10"/>
-      <c r="H7" s="2"/>
+      <c r="H7" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="I7" s="13"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:12" ht="14.25" customHeight="1">
+    <row r="8" spans="1:12" ht="28">
       <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
+      <c r="B8" s="22" t="s">
+        <v>38</v>
+      </c>
       <c r="C8" s="8"/>
-      <c r="D8" s="2"/>
+      <c r="D8" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="10"/>
